--- a/medicine/Mort/La_Mort_immortelle/La_Mort_immortelle.xlsx
+++ b/medicine/Mort/La_Mort_immortelle/La_Mort_immortelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Mort immortelle (titre original : chinois : 死神永生 ; pinyin : Sǐshén yǒngshēng) est un roman de science-fiction de l'écrivain chinois Liu Cixin publié en 2010[1]. C'est le troisième tome de la trilogie du Problème à trois corps, faisant suite au Problème à trois corps et à La Forêt sombre. La traduction française de l'ouvrage à partir du chinois, par Gwennaël Gaffric, est parue en 2018[2] aux éditions Actes Sud.
+La Mort immortelle (titre original : chinois : 死神永生 ; pinyin : Sǐshén yǒngshēng) est un roman de science-fiction de l'écrivain chinois Liu Cixin publié en 2010. C'est le troisième tome de la trilogie du Problème à trois corps, faisant suite au Problème à trois corps et à La Forêt sombre. La traduction française de l'ouvrage à partir du chinois, par Gwennaël Gaffric, est parue en 2018 aux éditions Actes Sud.
 Sa traduction en anglais par Ken Liu a été publiée par Tor Books le 20 septembre 2016. Elle a été nommée pour le prix Hugo du meilleur roman 2017 et a obtenu le prix Locus du meilleur roman de science-fiction 2017.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un demi-siècle après l'Ultime Bataille, l'équilibre précaire dû à la dissuasion de la forêt sombre continue de maintenir les envahisseurs trisolariens à distance. La Terre jouit d'une prospérité sans précédent grâce au transfert des connaissances et des technologies trisolariennes. La science humaine connaît des progrès pour ainsi dire quotidiens, les Trisolariens découvrent avec fascination la culture humaine et l'espoir grandit que les deux civilisations puissent bientôt coexister pacifiquement sans la terrible menace d'une annihilation réciproque. Mais lorsqu'une ingénieure en aéronautique originaire du début du XXIe siècle sort de son hibernation, elle réveille avec elle le souvenir d'un programme qui menace cet équilibre. Bientôt, l'humanité aura à faire un choix : partir à la conquête d'autres univers ou mourir dans son berceau.
 </t>
@@ -544,7 +558,9 @@
           <t>Ère commune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme d'ère commune désigne l'époque de l'histoire de l'humanité avant que l'on apprenne l'existence de la civilisation trisolarienne.
 Un premier événement s'est passé en 1453 lors de la Chute de Constantinople : un fragment dimensionnel supérieur, croisant l'orbite de la Terre, s'est fixé sur une tour de la ville de Constantinople et aurait pu permettre à une intrigante byzantine d'assassiner Mehmed II, mais ce fragment n'est pas resté suffisamment longtemps pour permettre l'opération et l'événement est passé inaperçu.
@@ -576,7 +592,9 @@
           <t>Ère de la Grande Crise (201X-2208)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début de la Grande Crise, Yang Dong, physicienne, découvre dans l'ordinateur de sa mère Ye Wenjie (qui était à l'origine de la première communication avec les Trisolariens), une réalité de l'Univers : la vie n'y est pas rare, et cette vie a façonné l'Univers, de la même façon que la vie a façonné la Terre. Sans vie, il n'y aurait ni montagnes ni océans.
 Quatre ans plus tard, Yun Tianming, un jeune étudiant devenu soudainement milliardaire mais atteint d'un cancer, décide d'être euthanasié et d'offrir le titre de propriété d'une étoile, DX3906, à une jeune femme qu'il aime en secret, une ancienne camarade de classe nommée Cheng Xin.
@@ -609,7 +627,9 @@
           <t>Ère de la Dissuasion  (2208-2270)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2208, Luo Ji, l'ancien Colmateur est devenu Porte-épée (épée de Damoclès) : il tient le bouton qui permet d'activer la transmission d'un message à l'ensemble de la galaxie, révélant l'existence de Trisolaris et de la Terre, mettant les deux civilisations sous la menace d'une destruction rapide par la Forêt Sombre. Cette menace obtient la collaboration forcée des intellectrons trisolariens et a permis des avancées technologiques sans précédent et un âge d'or pour l'humanité.
 Deux vaisseaux spatiaux terriens étaient en fuite lors de la Grande Crise : l'Âge de Bronze, qui a fui au cours de l'Ultime Bataille, quatorze ans plus tôt a été rappelé sur Terre, mais à leur retour, le  commandant et l'équipage ont été condamnés pour crime contre l'humanité. Le deuxième vaisseau, l'Espace bleu refuse de revenir et s'enfuit. La fédération Terre-Trisolaris envoie un vaisseau terrien, le Gravité accompagné de deux gouttelettes trisolariennes à sa poursuite.
@@ -643,7 +663,9 @@
           <t>Ère de la Post-Dissuasion (2270-2272)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une deuxième flotte d'invasion trisolarienne est en route vers la Terre, mais cette fois-ci à une vitesse beaucoup plus élevée que la première du fait des progrès technologiques trisolariens.
 Intellectra exige alors que les trois milliards d'humains habitant la Terre se regroupent en Australie. Pour forcer cette déportation, les gouttelettes commencent à détruire les villes. Cheng Xin se retrouve donc avec la masse de migrants en Australie, confrontée à la surpopulation, à la promiscuité et, ensuite, à la faim. Elle comprend alors que les Trisolariens veulent faire de l'Australie une sorte de zoo recueillant les quelques dizaines de millions de spécimens humains qui auront survécu par cannibalisme.
@@ -676,7 +698,9 @@
           <t>Ère de la Diffusion (2272-2332)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trisolariens, se sentant menacés par la Forêt sombre, détournent leur deuxième flotte et quittent la Terre. Le monde trisolarien est détruit par une particule de lumière envoyée par la Forêt Sombre. La Terre se retrouve aussi sous la menace quasi inévitable d'une telle destruction. Avant de partir, Intellectra donne à Cheng Xin et Luo Ji une information capitale pour l'humanité : « Il est possible de faire une déclaration de sécurité » auprès de la Forêt sombre, mais elle n'en dit pas plus.
 Intellectra autorise cependant une rencontre entre Cheng Xin et Yun Tianming. La première flotte trisolarienne a récupéré le cerveau de ce dernier qui dérivait dans l'espace et a cloné son corps. Yun Tianming, devenu une personnalité auprès des Trisolariens, a demandé à rencontrer  Cheng Xin. Ils se rencontrent à un point de Lagrange du système solaire : la rencontre ne dure pas plus d'une heure et est hautement surveillée pour éviter que Yun Tianming ne communique des informations technologiques ou concernant les Trisolariens. Pour meubler la conversation, Yun Tianming raconte un conte de son imagination, qu'il a l'habitude de raconter aux enfants trisolariens. Cheng Xin comprend que ce conte est une parabole permettant de mettre l'humanité sur la bonne voie, mettant la Terre à l'abri de la Forêt sombre. Avec l'aide d'autres scientifiques et spécialistes, elle trouve deux technologies possiblement candidates à cette déclaration de sécurité :
@@ -711,7 +735,9 @@
           <t>Ère des Bunkers (2333-2400)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'humanité s'est concentrée dans des villes spatiales abritées derrière les géantes gazeuses. Cheng Xin est sortie d'hibernation pour intervenir contre Wade, qui a mené des recherches sur la propulsion par courbure jugée illégale. Afin d'éviter un conflit, Cheng Xin fait arrêter Wade et interrompre toute recherche interdite.
 Pendant ce temps dans la Forêt Sombre, les coordonnées de la Terre ont été découvertes par un Assainisseur, qui voit en la Terre un danger potentiel. Il décide d'envoyer non pas une particule de lumière mais un « Post-it », un fragment d'espace à deux dimensions.
@@ -744,7 +770,9 @@
           <t>Ère de la Galaxie (2273-?) et Ère du Champ noir pour DX3906</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheng Xin et AA arrivent sur DX3906 après des années d'hibernation. Elles y sont attendues par Guan Yifan, un membre de l'équipage du Gravité. Les deux vaisseaux Gravité et Espace bleu ont survécu et colonisé quatre planètes, ils ont découvert aussi la propulsion par courbure et que celle-ci permettait de développer la technique du Champ noir, mettant ainsi les nouvelles planètes à l'abri de la Forêt Sombre. Cheng Xin et Guan Yifan sont cependant pris dans un champ de ralentissement de la vitesse de la lumière et se voient projetés de 18 millions d'années dans le futur.  
 AA et Yun Tianming qui les attendaient sont morts depuis ces millions d'années, mais ont laissé gravé dans la pierre un message qui conduit Cheng Xin et Guan Yifan à un petit univers créé par les Trisolariens qui leur est offert en cadeau, Intellectra ou une de ses copies les y attendant. 
@@ -777,7 +805,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>死神永生, Chongqing Press, 1er novembre 2010, 513 p.  (ISBN 978-7-229-03093-3)
 La Mort immortelle, Actes Sud, coll. « Exofictions », 10 octobre 2018, trad. Gwennaël Gaffric, 816 p.  (ISBN 978-2-330-11384-1)
